--- a/web/files/schedules/469_fts_20221205.xlsx
+++ b/web/files/schedules/469_fts_20221205.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="85">
   <si>
     <t>O</t>
   </si>
@@ -26,16 +26,16 @@
     <t>0900</t>
   </si>
   <si>
-    <t>HannonPhilip</t>
-  </si>
-  <si>
-    <t>BartlowAmos</t>
-  </si>
-  <si>
-    <t>McDanielAustin</t>
-  </si>
-  <si>
-    <t>JohnsonFrederick</t>
+    <t>Rubach, Oerjan</t>
+  </si>
+  <si>
+    <t>Mulhare, Anthony</t>
+  </si>
+  <si>
+    <t>Brown, Connor</t>
+  </si>
+  <si>
+    <t>Herndon, Cary</t>
   </si>
   <si>
     <t>M</t>
@@ -44,25 +44,25 @@
     <t>0915</t>
   </si>
   <si>
-    <t>SmithKristyna</t>
-  </si>
-  <si>
-    <t>KiernanChristopher</t>
-  </si>
-  <si>
-    <t>JohnsOscar</t>
-  </si>
-  <si>
-    <t>HeimbuergerStefan</t>
+    <t>Kiernan, Christopher</t>
+  </si>
+  <si>
+    <t>Heimbuerger, Stefan</t>
+  </si>
+  <si>
+    <t>Nielson, Mark</t>
+  </si>
+  <si>
+    <t>Hatfield, Bennett</t>
   </si>
   <si>
     <t>0930</t>
   </si>
   <si>
-    <t>CottinghamTrey</t>
-  </si>
-  <si>
-    <t>AhmlingTobias</t>
+    <t>Freeman, Nathaniel</t>
+  </si>
+  <si>
+    <t>Eickriede, Nico</t>
   </si>
   <si>
     <t>X</t>
@@ -71,184 +71,172 @@
     <t>1000</t>
   </si>
   <si>
-    <t>MarshRobert</t>
-  </si>
-  <si>
-    <t>FinkeAaron</t>
-  </si>
-  <si>
     <t>1015</t>
   </si>
   <si>
-    <t>PotsiosGeorgios</t>
-  </si>
-  <si>
-    <t>ErturkCagri</t>
-  </si>
-  <si>
-    <t>CasteleynStephane</t>
-  </si>
-  <si>
-    <t>KiserAaron</t>
+    <t>Jefferson, Timothy</t>
+  </si>
+  <si>
+    <t>Smith, Kristyna</t>
   </si>
   <si>
     <t>1030</t>
   </si>
   <si>
-    <t>KornAugust</t>
-  </si>
-  <si>
-    <t>SimastuenDag</t>
-  </si>
-  <si>
     <t>1045</t>
   </si>
   <si>
-    <t>WatersFrank</t>
-  </si>
-  <si>
     <t>1215</t>
   </si>
   <si>
-    <t>StegallGregory</t>
-  </si>
-  <si>
-    <t>BeaudoinFrancis</t>
+    <t>Ahmling, Tobias</t>
+  </si>
+  <si>
+    <t>Knox, Thompson</t>
   </si>
   <si>
     <t>1230</t>
   </si>
   <si>
-    <t>WadeHunter</t>
-  </si>
-  <si>
-    <t>HerndonCary</t>
+    <t>Finkelstein-Diaz, Ryan</t>
+  </si>
+  <si>
+    <t>Marsh, Robert</t>
   </si>
   <si>
     <t>1245</t>
   </si>
   <si>
-    <t>Finkelstein-DiazRyan</t>
-  </si>
-  <si>
-    <t>AutryEvan</t>
+    <t>Wade, Hunter</t>
+  </si>
+  <si>
+    <t>McDaniel, Austin</t>
+  </si>
+  <si>
+    <t>Cottingham, Trey</t>
+  </si>
+  <si>
+    <t>Six, Antoine</t>
   </si>
   <si>
     <t>1300</t>
   </si>
   <si>
-    <t>SeppeltFelix</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>1430</t>
   </si>
   <si>
-    <t>BrownConnor</t>
-  </si>
-  <si>
-    <t>JettConrad</t>
-  </si>
-  <si>
-    <t>RobertsAdam</t>
+    <t>Harms, Robert</t>
+  </si>
+  <si>
+    <t>Johns, Oscar</t>
+  </si>
+  <si>
+    <t>Hannon, Philip</t>
+  </si>
+  <si>
+    <t>Wolf, Thomas</t>
   </si>
   <si>
     <t>1445</t>
   </si>
   <si>
-    <t>KetronTyler</t>
-  </si>
-  <si>
-    <t>JepsenOle</t>
-  </si>
-  <si>
-    <t>HatfieldBennett</t>
-  </si>
-  <si>
-    <t>GramlingSamuel</t>
+    <t>Shannon, Marcus</t>
+  </si>
+  <si>
+    <t>Casteleyn, Stephane</t>
+  </si>
+  <si>
+    <t>Simastuen, Dag</t>
+  </si>
+  <si>
+    <t>Gramling, Samuel</t>
   </si>
   <si>
     <t>1530</t>
   </si>
   <si>
-    <t>EickriedeNico</t>
-  </si>
-  <si>
-    <t>NielsonMark</t>
-  </si>
-  <si>
-    <t>SchmidtMichael</t>
-  </si>
-  <si>
     <t>1545</t>
   </si>
   <si>
-    <t>RubachOerjan</t>
-  </si>
-  <si>
-    <t>SixAntoine</t>
-  </si>
-  <si>
     <t>1600</t>
   </si>
   <si>
-    <t>HarmsRobert</t>
-  </si>
-  <si>
     <t>1745</t>
   </si>
   <si>
-    <t>NewsomeMiles</t>
-  </si>
-  <si>
     <t>1800</t>
   </si>
   <si>
-    <t>KeelerJoshua</t>
+    <t>Bartlow, Amos</t>
   </si>
   <si>
     <t>1815</t>
   </si>
   <si>
-    <t>HalvorsonCory</t>
-  </si>
-  <si>
-    <t>MulhareAnthony</t>
+    <t>Kiser, Aaron</t>
+  </si>
+  <si>
+    <t>Beaudoin, Francis</t>
+  </si>
+  <si>
+    <t>Jett, Conrad</t>
   </si>
   <si>
     <t>1830</t>
   </si>
   <si>
-    <t>ShannonMarcus</t>
-  </si>
-  <si>
-    <t>GoodyerChristopher</t>
-  </si>
-  <si>
-    <t>KnoxThompson</t>
-  </si>
-  <si>
-    <t>WolfThomas</t>
-  </si>
-  <si>
-    <t>ZitzmannLukas</t>
-  </si>
-  <si>
-    <t>Santamaria SanchezD.</t>
-  </si>
-  <si>
-    <t>JarrellTimothy</t>
-  </si>
-  <si>
-    <t>FreemanNathaniel</t>
-  </si>
-  <si>
-    <t>JeffersonTimothy</t>
-  </si>
-  <si>
-    <t>GibbonsGuy</t>
+    <t>Goodyer, Christopher</t>
+  </si>
+  <si>
+    <t>Waters, Frank</t>
+  </si>
+  <si>
+    <t>Autry, Evan</t>
+  </si>
+  <si>
+    <t>Stegall, Gregory</t>
+  </si>
+  <si>
+    <t>Ketron, Tyler</t>
+  </si>
+  <si>
+    <t>Potsios, Georgios</t>
+  </si>
+  <si>
+    <t>Gibbons, Guy</t>
+  </si>
+  <si>
+    <t>Korn, August</t>
+  </si>
+  <si>
+    <t>Seppelt, Felix</t>
+  </si>
+  <si>
+    <t>Newsome, Miles</t>
+  </si>
+  <si>
+    <t>Finke, Aaron</t>
+  </si>
+  <si>
+    <t>Keeler, Joshua</t>
+  </si>
+  <si>
+    <t>Santamaria Sanchez, D.</t>
+  </si>
+  <si>
+    <t>Johnson, Frederick</t>
+  </si>
+  <si>
+    <t>Jepsen, Ole</t>
+  </si>
+  <si>
+    <t>Zitzmann, Lukas</t>
+  </si>
+  <si>
+    <t>Roberts, Adam</t>
   </si>
   <si>
     <t>1200</t>
@@ -257,9 +245,15 @@
     <t>1500</t>
   </si>
   <si>
+    <t>Erturk, Cagri</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
+    <t>Schmidt, Michael</t>
+  </si>
+  <si>
     <t>1100</t>
   </si>
   <si>
@@ -267,6 +261,9 @@
   </si>
   <si>
     <t>1315</t>
+  </si>
+  <si>
+    <t>Halvorson, Cory</t>
   </si>
   <si>
     <t>1330</t>
@@ -763,9 +760,6 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
@@ -777,9 +771,6 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
@@ -789,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -803,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -817,10 +808,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -831,10 +819,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -845,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -856,10 +841,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -870,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -881,10 +863,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -895,10 +874,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -909,7 +885,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -920,10 +896,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -934,10 +910,10 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -948,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -962,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -976,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -990,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1004,10 +980,10 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1018,10 +994,10 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1032,10 +1008,10 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1046,10 +1022,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1060,10 +1036,10 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1074,10 +1050,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1088,10 +1064,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1102,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1113,13 +1089,13 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1127,13 +1103,13 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1141,13 +1117,13 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1155,13 +1131,13 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1169,13 +1145,13 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1183,13 +1159,13 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1197,13 +1173,13 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
         <v>40</v>
       </c>
-      <c r="C43" t="s">
-        <v>45</v>
-      </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1211,13 +1187,13 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
         <v>40</v>
       </c>
-      <c r="C44" t="s">
-        <v>45</v>
-      </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1228,10 +1204,7 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1242,7 +1215,7 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1253,10 +1226,7 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1267,10 +1237,7 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1281,10 +1248,7 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1295,10 +1259,7 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1309,10 +1270,7 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1323,10 +1281,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1337,10 +1292,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1351,10 +1303,7 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1365,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1376,10 +1325,7 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1390,7 +1336,7 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1401,10 +1347,7 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1412,13 +1355,13 @@
         <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1426,13 +1369,13 @@
         <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1440,13 +1383,13 @@
         <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1454,13 +1397,13 @@
         <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1468,13 +1411,13 @@
         <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1482,13 +1425,13 @@
         <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1496,13 +1439,13 @@
         <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1510,13 +1453,13 @@
         <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1543,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1557,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1571,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1585,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1599,7 +1542,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1613,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1627,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1641,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1655,7 +1598,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1669,7 +1612,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1682,9 +1625,6 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
@@ -1696,9 +1636,6 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
@@ -1708,10 +1645,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1722,9 +1656,6 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1736,10 +1667,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1750,10 +1678,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1764,10 +1689,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1778,7 +1700,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1789,7 +1711,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1800,10 +1722,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1814,10 +1733,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1828,10 +1744,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1842,10 +1755,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1856,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1870,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1884,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
         <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1898,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1912,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1926,10 +1839,10 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1940,10 +1853,10 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1954,10 +1867,10 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1968,10 +1881,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1982,10 +1895,10 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1996,10 +1909,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2007,13 +1920,13 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2021,13 +1934,13 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2035,13 +1948,13 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2049,13 +1962,13 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2063,13 +1976,13 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2077,13 +1990,13 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
-        <v>45</v>
-      </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2091,13 +2004,13 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2105,13 +2018,13 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2122,7 +2035,7 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2133,10 +2046,7 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2147,10 +2057,7 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2161,10 +2068,7 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2175,10 +2079,7 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2189,10 +2090,7 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2203,7 +2101,7 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2214,7 +2112,7 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2225,10 +2123,7 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2239,7 +2134,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2250,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2261,10 +2156,7 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2275,10 +2167,7 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2289,7 +2178,7 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2297,13 +2186,13 @@
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2311,13 +2200,13 @@
         <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2325,13 +2214,13 @@
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2339,13 +2228,13 @@
         <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2353,13 +2242,13 @@
         <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2367,13 +2256,13 @@
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2381,13 +2270,13 @@
         <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2395,13 +2284,13 @@
         <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2442,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2456,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2470,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2484,7 +2373,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2498,7 +2387,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2512,7 +2401,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2526,7 +2415,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2540,7 +2429,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2554,7 +2443,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2567,9 +2456,6 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
@@ -2581,9 +2467,6 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
@@ -2593,7 +2476,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2604,10 +2487,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2618,7 +2498,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2629,10 +2509,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2643,10 +2520,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2657,7 +2531,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2668,10 +2542,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2682,10 +2553,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2696,7 +2564,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2707,10 +2575,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2721,10 +2586,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2735,10 +2600,10 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2749,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2763,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2777,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2791,10 +2656,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2805,10 +2670,10 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2819,10 +2684,10 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2833,10 +2698,10 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2847,10 +2712,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2861,10 +2726,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2875,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2889,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2903,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2914,13 +2779,13 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2928,13 +2793,13 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2942,13 +2807,13 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2956,13 +2821,13 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2970,13 +2835,13 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2984,13 +2849,13 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2998,13 +2863,13 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
         <v>40</v>
       </c>
-      <c r="C43" t="s">
-        <v>45</v>
-      </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3012,13 +2877,13 @@
         <v>58</v>
       </c>
       <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
         <v>40</v>
       </c>
-      <c r="C44" t="s">
-        <v>45</v>
-      </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3029,7 +2894,7 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3040,7 +2905,7 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3051,10 +2916,7 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3065,7 +2927,7 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3076,10 +2938,7 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3090,10 +2949,7 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3104,10 +2960,7 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3118,10 +2971,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3132,10 +2982,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3146,10 +2993,7 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3160,7 +3004,7 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3171,10 +3015,7 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3185,10 +3026,7 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3199,10 +3037,7 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3210,13 +3045,13 @@
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3224,13 +3059,13 @@
         <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3238,13 +3073,13 @@
         <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3252,13 +3087,13 @@
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3266,13 +3101,13 @@
         <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3280,13 +3115,13 @@
         <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3294,13 +3129,13 @@
         <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3308,13 +3143,13 @@
         <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3355,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3369,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3397,7 +3232,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3411,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3425,7 +3260,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3439,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3453,7 +3288,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3467,7 +3302,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3481,7 +3316,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3494,9 +3329,6 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
@@ -3508,9 +3340,6 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
@@ -3520,7 +3349,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3531,10 +3360,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3545,10 +3371,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3559,7 +3382,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3570,10 +3393,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3584,7 +3404,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3595,10 +3415,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3609,7 +3426,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3620,10 +3437,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3634,10 +3448,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3648,10 +3459,10 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3662,10 +3473,10 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3676,10 +3487,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3690,10 +3501,10 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3704,10 +3515,10 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3718,10 +3529,10 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3732,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3746,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3760,10 +3571,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3774,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3788,10 +3599,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3799,13 +3610,13 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3813,13 +3624,13 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3827,13 +3638,13 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3841,13 +3652,13 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
         <v>40</v>
       </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3855,13 +3666,13 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3869,13 +3680,13 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
-        <v>45</v>
-      </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3883,13 +3694,13 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3897,13 +3708,13 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3914,10 +3725,7 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3928,7 +3736,7 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3939,10 +3747,7 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3953,7 +3758,7 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3964,10 +3769,7 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3978,7 +3780,7 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3989,10 +3791,7 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4003,10 +3802,7 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4017,10 +3813,7 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4031,10 +3824,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4045,10 +3835,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4059,10 +3846,7 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4073,7 +3857,7 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4084,7 +3868,7 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4092,13 +3876,13 @@
         <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4106,13 +3890,13 @@
         <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4120,13 +3904,13 @@
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4134,13 +3918,13 @@
         <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4148,13 +3932,13 @@
         <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4162,13 +3946,13 @@
         <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4176,13 +3960,13 @@
         <v>88</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4190,13 +3974,13 @@
         <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4223,7 +4007,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4237,7 +4021,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4251,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4265,7 +4049,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4279,7 +4063,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4293,7 +4077,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4301,13 +4085,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4315,13 +4099,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4329,13 +4113,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4343,13 +4127,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4357,13 +4141,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4371,13 +4155,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4388,10 +4172,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4402,10 +4183,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4416,10 +4194,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4430,10 +4205,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4444,10 +4216,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4458,10 +4227,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4472,10 +4238,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4486,10 +4249,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4500,10 +4260,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4514,10 +4271,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4528,10 +4282,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4542,10 +4293,7 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4553,13 +4301,13 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4567,13 +4315,13 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4581,13 +4329,13 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4595,13 +4343,13 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4609,13 +4357,13 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4623,13 +4371,13 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4640,10 +4388,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4654,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4668,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4682,10 +4430,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4696,10 +4444,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4710,10 +4458,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4724,10 +4472,10 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
         <v>38</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4738,10 +4486,10 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4752,10 +4500,10 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4766,7 +4514,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
         <v>75</v>
@@ -4780,10 +4528,10 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4794,10 +4542,10 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4808,10 +4556,10 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4822,10 +4570,7 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4836,10 +4581,7 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4850,10 +4592,7 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4864,10 +4603,7 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4878,10 +4614,7 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4892,10 +4625,7 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4906,10 +4636,7 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4920,10 +4647,7 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4934,10 +4658,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4948,10 +4669,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4962,10 +4680,10 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4976,10 +4694,10 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4990,10 +4708,10 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5004,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5018,10 +4736,10 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5032,10 +4750,10 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5046,10 +4764,10 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
